--- a/Measures/data_saxpy_DGPU_0_0.xlsx
+++ b/Measures/data_saxpy_DGPU_0_0.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="data_saxpy_DGPU_0_0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>fastPath_1</t>
+  </si>
+  <si>
+    <t>J/size</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.49735476815398078"/>
-                  <c:y val="-8.1753062117235348E-2"/>
+                  <c:x val="0.49735476815398089"/>
+                  <c:y val="-8.1753062117235362E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -709,23 +712,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="60541184"/>
-        <c:axId val="59690368"/>
+        <c:axId val="140306304"/>
+        <c:axId val="140307840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60541184"/>
+        <c:axId val="140306304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59690368"/>
+        <c:crossAx val="140307840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59690368"/>
+        <c:axId val="140307840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,9 +736,1116 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60541184"/>
+        <c:crossAx val="140306304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waveFronts_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>304768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1735680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2250752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2576384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2719744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2818048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2818048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2228224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="147419136"/>
+        <c:axId val="146603008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="147419136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146603008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146603008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147419136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AluBusy_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35724100470542902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50865197181701705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55398797988891602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58843302726745605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60918897390365601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61391001939773604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62070602178573597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61836898326873802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62389397621154796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34874400496482799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.351754009723663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="152512768"/>
+        <c:axId val="152511232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152512768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152511232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152511232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152512768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>aluPacking_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.50176000595092796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2907910346984901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21645903587341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6940131187439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1478729248046902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30423200130463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91694700717926003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.23712110519409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61448299884796098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.313872009515762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30322000384330799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="150655744"/>
+        <c:axId val="150492672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150655744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150492672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150492672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150655744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetchUnitBusy_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.23030699789524101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90593498945236195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8190960884094198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2816100120544398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69630599021912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83159202337265004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42984598875045799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7718689441680899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11784899979829799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5652998834848397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2732999175787E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="157538176"/>
+        <c:axId val="157536640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157538176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157536640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157536640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157538176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetchUnitStalled_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>609536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1651712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2560000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3471360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4501504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5152768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5439488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5636096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5636096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4456448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="145622912"/>
+        <c:axId val="115083904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="145622912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115083904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115083904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145622912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fastPath_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>304768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>826005.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1280191.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1735949.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2251060.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2576688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2719943.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2818326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2818329.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2228423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="151993344"/>
+        <c:axId val="151991808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151993344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151991808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151991808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151993344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J/size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0652963504030915E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3815354267014773E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.543486716368267E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0413580036236134E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5886013340844822E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0207235013181204E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2549339470905063E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.870900715452397E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5439007371361853E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4520927516554E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4981428756482305E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="151843584"/>
+        <c:axId val="151845120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151843584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151845120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151845120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151843584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -782,6 +1892,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38606036745406824"/>
+                  <c:y val="-5.145268299795859E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>data_saxpy_DGPU_0_0!$B$2:$B$10</c:f>
@@ -855,23 +1979,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61402496"/>
-        <c:axId val="61385344"/>
+        <c:axId val="143391744"/>
+        <c:axId val="143393536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61402496"/>
+        <c:axId val="143391744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61385344"/>
+        <c:crossAx val="143393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61385344"/>
+        <c:axId val="143393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +2003,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61402496"/>
+        <c:crossAx val="143391744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,7 +2016,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -935,7 +2059,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.37444203849518809"/>
-                  <c:y val="-9.6183289588801391E-3"/>
+                  <c:y val="-9.6183289588801374E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1014,23 +2138,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62305024"/>
-        <c:axId val="62268160"/>
+        <c:axId val="143406208"/>
+        <c:axId val="143407744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62305024"/>
+        <c:axId val="143406208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62268160"/>
+        <c:crossAx val="143407744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62268160"/>
+        <c:axId val="143407744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +2162,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62305024"/>
+        <c:crossAx val="143406208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1051,7 +2175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1160,23 +2284,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61972480"/>
-        <c:axId val="61400960"/>
+        <c:axId val="143448320"/>
+        <c:axId val="143454208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61972480"/>
+        <c:axId val="143448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61400960"/>
+        <c:crossAx val="143454208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61400960"/>
+        <c:axId val="143454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +2308,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61972480"/>
+        <c:crossAx val="143448320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1197,7 +2321,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1306,23 +2430,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="60793216"/>
-        <c:axId val="60770944"/>
+        <c:axId val="143879552"/>
+        <c:axId val="143885440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60793216"/>
+        <c:axId val="143879552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60770944"/>
+        <c:crossAx val="143885440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60770944"/>
+        <c:axId val="143885440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +2454,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60793216"/>
+        <c:crossAx val="143879552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1343,7 +2467,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1452,23 +2576,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61978112"/>
-        <c:axId val="61933056"/>
+        <c:axId val="143897344"/>
+        <c:axId val="143898880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61978112"/>
+        <c:axId val="143897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61933056"/>
+        <c:crossAx val="143898880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61933056"/>
+        <c:axId val="143898880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +2600,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61978112"/>
+        <c:crossAx val="143897344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1489,7 +2613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1598,23 +2722,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70544000"/>
-        <c:axId val="62520320"/>
+        <c:axId val="143931264"/>
+        <c:axId val="143932800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70544000"/>
+        <c:axId val="143931264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62520320"/>
+        <c:crossAx val="143932800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62520320"/>
+        <c:axId val="143932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +2746,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70544000"/>
+        <c:crossAx val="143931264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1635,7 +2759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1744,23 +2868,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="53757056"/>
-        <c:axId val="60773888"/>
+        <c:axId val="143989760"/>
+        <c:axId val="144028416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53757056"/>
+        <c:axId val="143989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60773888"/>
+        <c:crossAx val="144028416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60773888"/>
+        <c:axId val="144028416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +2892,165 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53757056"/>
+        <c:crossAx val="143989760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_DGPU_0_0!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpuBusy_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>266.423261620017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.15261144861603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.61578177564297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.97150500381701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795.72252324889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262.6372332236299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2204.0790474017499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086.0076708849701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7623.4004149493003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14938.744349311401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43608.298649444601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_saxpy_DGPU_0_0!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3926270008087198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.91790699958801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.99708795547485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.81026315689087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6047720909118697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4144563674926793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.6237525939941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.653679847717299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.1318111419678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.8723545074463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.105888366699199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="151127936"/>
+        <c:axId val="151126400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151127936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151126400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151126400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151127936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1821,16 +3103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2024,6 +3306,246 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Grafico 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Grafico 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Grafico 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2317,15 +3839,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="J1:J10 K1:K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2368,8 +3890,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2412,8 +3937,12 @@
       <c r="N2">
         <v>304768</v>
       </c>
+      <c r="P2">
+        <f>E2/B2</f>
+        <v>4.0652963504030915E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2456,8 +3985,12 @@
       <c r="N3">
         <v>512000</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="0">E3/B3</f>
+        <v>2.3815354267014773E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2500,8 +4033,12 @@
       <c r="N4">
         <v>826005.75</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.543486716368267E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2544,8 +4081,12 @@
       <c r="N5">
         <v>1280191.875</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.0413580036236134E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2588,8 +4129,12 @@
       <c r="N6">
         <v>1735949.625</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>7.5886013340844822E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2632,8 +4177,12 @@
       <c r="N7">
         <v>2251060.5</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6.0207235013181204E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2676,8 +4225,12 @@
       <c r="N8">
         <v>2576688</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.2549339470905063E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2720,8 +4273,12 @@
       <c r="N9">
         <v>2719943.5</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>4.870900715452397E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2764,8 +4321,12 @@
       <c r="N10">
         <v>2818326</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>4.5439007371361853E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2808,8 +4369,12 @@
       <c r="N11">
         <v>2818329.5</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>4.4520927516554E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2852,58 +4417,62 @@
       <c r="N12">
         <v>2228423</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>6.4981428756482305E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="B15">
         <f>CORREL(B2:B10,$E2:$E10)</f>
         <v>0.99974760510996707</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:N15" si="0">CORREL(C2:C10,$E2:$E10)</f>
+        <f t="shared" ref="C15:N15" si="1">CORREL(C2:C10,$E2:$E10)</f>
         <v>-0.6368197096916306</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99992644415080056</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78446928131876414</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75569720436609844</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46829702754352159</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.3542691857743116</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.39146394269542406</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75569720436609844</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75567342524356118</v>
       </c>
     </row>
